--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -502,46 +502,14 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>9.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10.</t>
-        </is>
-      </c>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
@@ -551,54 +519,22 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
+          <t>22°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
           <t>21°</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
@@ -608,54 +544,22 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>12:28:36</t>
+          <t>15:18:33</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>12:28:42</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>12:28:48</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>12:28:54</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>12:29:34</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>12:29:39</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>12:29:45</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>12:29:52</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>12:30:51</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>12:30:56</t>
-        </is>
-      </c>
+          <t>15:18:40</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
@@ -673,46 +577,14 @@
           <t>12-09-22</t>
         </is>
       </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>12-09-22</t>
-        </is>
-      </c>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
+          <t>18°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
           <t>22°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>21°</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -544,12 +544,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>15:18:33</t>
+          <t>10:53:13</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>15:18:40</t>
+          <t>10:53:19</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -569,12 +569,12 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>12-09-22</t>
+          <t>13-09-22</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>12-09-22</t>
+          <t>13-09-22</t>
         </is>
       </c>
       <c r="D5" s="9" t="n"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -519,12 +519,12 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
+          <t>22°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
           <t>18°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>22°</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -544,12 +544,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>10:53:13</t>
+          <t>13:01:33</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>10:53:19</t>
+          <t>13:01:40</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -502,12 +502,36 @@
           <t>2.</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n"/>
-      <c r="E2" s="8" t="n"/>
-      <c r="F2" s="8" t="n"/>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
+      <c r="E2" s="8" t="inlineStr">
+        <is>
+          <t>4.</t>
+        </is>
+      </c>
+      <c r="F2" s="8" t="inlineStr">
+        <is>
+          <t>5.</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>6.</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>7.</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>8.</t>
+        </is>
+      </c>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="5" t="n"/>
     </row>
@@ -519,20 +543,44 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
           <t>22°</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="n"/>
-      <c r="E3" s="8" t="n"/>
-      <c r="F3" s="8" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>20°</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>21°</t>
+        </is>
+      </c>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="5" t="n"/>
     </row>
@@ -544,20 +592,44 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>13:01:33</t>
+          <t>09:05:57</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>13:01:40</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="n"/>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
+          <t>09:07:33</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>09:08:17</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>09:09:20</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>09:19:19</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>09:20:51</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>09:21:29</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>09:26:07</t>
+        </is>
+      </c>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
     </row>
@@ -569,20 +641,44 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>13-09-22</t>
+          <t>15-09-22</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>13-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="9" t="n"/>
-      <c r="F5" s="9" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="E5" s="9" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="F5" s="9" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>15-09-22</t>
+        </is>
+      </c>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
     </row>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -497,41 +497,13 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
-      <c r="E2" s="8" t="inlineStr">
-        <is>
-          <t>4.</t>
-        </is>
-      </c>
-      <c r="F2" s="8" t="inlineStr">
-        <is>
-          <t>5.</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>6.</t>
-        </is>
-      </c>
-      <c r="H2" s="5" t="inlineStr">
-        <is>
-          <t>7.</t>
-        </is>
-      </c>
-      <c r="I2" s="5" t="inlineStr">
-        <is>
-          <t>8.</t>
-        </is>
-      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
+      <c r="E2" s="8" t="n"/>
+      <c r="F2" s="8" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="5" t="n"/>
     </row>
@@ -543,44 +515,16 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>19°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>22°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
-      <c r="E3" s="8" t="inlineStr">
-        <is>
           <t>21°</t>
         </is>
       </c>
-      <c r="F3" s="8" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>21°</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
-        <is>
-          <t>19°</t>
-        </is>
-      </c>
-      <c r="I3" s="5" t="inlineStr">
-        <is>
-          <t>21°</t>
-        </is>
-      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
+      <c r="E3" s="8" t="n"/>
+      <c r="F3" s="8" t="n"/>
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="5" t="n"/>
     </row>
@@ -592,44 +536,16 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>09:05:57</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>09:07:33</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>09:08:17</t>
-        </is>
-      </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>09:09:20</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>09:19:19</t>
-        </is>
-      </c>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>09:20:51</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>09:21:29</t>
-        </is>
-      </c>
-      <c r="I4" s="5" t="inlineStr">
-        <is>
-          <t>09:26:07</t>
-        </is>
-      </c>
+          <t>12:06:24</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
     </row>
@@ -641,44 +557,16 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="E5" s="9" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="F5" s="9" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>15-09-22</t>
-        </is>
-      </c>
+          <t>19-09-22</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="9" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
     </row>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -497,8 +497,16 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n"/>
-      <c r="D2" s="8" t="n"/>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="inlineStr">
+        <is>
+          <t>3.</t>
+        </is>
+      </c>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
       <c r="G2" s="5" t="n"/>
@@ -515,11 +523,19 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>21°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n"/>
-      <c r="D3" s="8" t="n"/>
+          <t>20°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>18°</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>20°</t>
+        </is>
+      </c>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="5" t="n"/>
@@ -536,11 +552,19 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>12:06:24</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n"/>
-      <c r="D4" s="8" t="n"/>
+          <t>13:27:09</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>13:27:17</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>13:27:26</t>
+        </is>
+      </c>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -557,11 +581,19 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>19-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n"/>
-      <c r="D5" s="9" t="n"/>
+          <t>20-09-22</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>20-09-22</t>
+        </is>
+      </c>
+      <c r="D5" s="9" t="inlineStr">
+        <is>
+          <t>20-09-22</t>
+        </is>
+      </c>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="5" t="n"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -497,16 +497,8 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D2" s="8" t="inlineStr">
-        <is>
-          <t>3.</t>
-        </is>
-      </c>
+      <c r="C2" s="8" t="n"/>
+      <c r="D2" s="8" t="n"/>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
       <c r="G2" s="5" t="n"/>
@@ -526,16 +518,8 @@
           <t>20°</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>18°</t>
-        </is>
-      </c>
-      <c r="D3" s="8" t="inlineStr">
-        <is>
-          <t>20°</t>
-        </is>
-      </c>
+      <c r="C3" s="8" t="n"/>
+      <c r="D3" s="8" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
       <c r="G3" s="5" t="n"/>
@@ -552,19 +536,11 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>13:27:09</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>13:27:17</t>
-        </is>
-      </c>
-      <c r="D4" s="8" t="inlineStr">
-        <is>
-          <t>13:27:26</t>
-        </is>
-      </c>
+          <t>09:58:27</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n"/>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="5" t="n"/>
@@ -581,19 +557,11 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
-      <c r="D5" s="9" t="inlineStr">
-        <is>
-          <t>20-09-22</t>
-        </is>
-      </c>
+          <t>21-09-22</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n"/>
+      <c r="D5" s="9" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
       <c r="G5" s="5" t="n"/>

--- a/final_report.xlsx
+++ b/final_report.xlsx
@@ -497,7 +497,11 @@
           <t>1.</t>
         </is>
       </c>
-      <c r="C2" s="8" t="n"/>
+      <c r="C2" s="8" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
       <c r="D2" s="8" t="n"/>
       <c r="E2" s="8" t="n"/>
       <c r="F2" s="8" t="n"/>
@@ -506,6 +510,16 @@
       <c r="I2" s="5" t="n"/>
       <c r="J2" s="5" t="n"/>
       <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="5" t="n"/>
+      <c r="N2" s="5" t="n"/>
+      <c r="O2" s="5" t="n"/>
+      <c r="P2" s="5" t="n"/>
+      <c r="Q2" s="5" t="n"/>
+      <c r="R2" s="5" t="n"/>
+      <c r="S2" s="5" t="n"/>
+      <c r="T2" s="5" t="n"/>
+      <c r="U2" s="5" t="n"/>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
@@ -515,10 +529,14 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>20°</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n"/>
+          <t>19°</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="inlineStr">
+        <is>
+          <t>22°</t>
+        </is>
+      </c>
       <c r="D3" s="8" t="n"/>
       <c r="E3" s="8" t="n"/>
       <c r="F3" s="8" t="n"/>
@@ -527,6 +545,16 @@
       <c r="I3" s="5" t="n"/>
       <c r="J3" s="5" t="n"/>
       <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+      <c r="M3" s="5" t="n"/>
+      <c r="N3" s="5" t="n"/>
+      <c r="O3" s="5" t="n"/>
+      <c r="P3" s="5" t="n"/>
+      <c r="Q3" s="5" t="n"/>
+      <c r="R3" s="5" t="n"/>
+      <c r="S3" s="5" t="n"/>
+      <c r="T3" s="5" t="n"/>
+      <c r="U3" s="5" t="n"/>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
@@ -536,10 +564,14 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>09:58:27</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="n"/>
+          <t>12:13:26</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>12:13:31</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="8" t="n"/>
       <c r="F4" s="8" t="n"/>
@@ -548,6 +580,16 @@
       <c r="I4" s="5" t="n"/>
       <c r="J4" s="5" t="n"/>
       <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+      <c r="M4" s="5" t="n"/>
+      <c r="N4" s="5" t="n"/>
+      <c r="O4" s="5" t="n"/>
+      <c r="P4" s="5" t="n"/>
+      <c r="Q4" s="5" t="n"/>
+      <c r="R4" s="5" t="n"/>
+      <c r="S4" s="5" t="n"/>
+      <c r="T4" s="5" t="n"/>
+      <c r="U4" s="5" t="n"/>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
@@ -557,10 +599,14 @@
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>21-09-22</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n"/>
+          <t>23-09-22</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="inlineStr">
+        <is>
+          <t>23-09-22</t>
+        </is>
+      </c>
       <c r="D5" s="9" t="n"/>
       <c r="E5" s="9" t="n"/>
       <c r="F5" s="9" t="n"/>
@@ -569,6 +615,16 @@
       <c r="I5" s="5" t="n"/>
       <c r="J5" s="5" t="n"/>
       <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+      <c r="M5" s="5" t="n"/>
+      <c r="N5" s="5" t="n"/>
+      <c r="O5" s="5" t="n"/>
+      <c r="P5" s="5" t="n"/>
+      <c r="Q5" s="5" t="n"/>
+      <c r="R5" s="5" t="n"/>
+      <c r="S5" s="5" t="n"/>
+      <c r="T5" s="5" t="n"/>
+      <c r="U5" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
